--- a/model/Auswertung/Infografiken/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Molmo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>47.49163879598662</v>
+        <v>193</v>
       </c>
       <c r="D2" t="n">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>36.45484949832776</v>
+      </c>
+      <c r="G2" t="n">
         <v>41</v>
       </c>
-      <c r="F2" t="n">
-        <v>60.97560975609756</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>21</v>
       </c>
-      <c r="H2" t="n">
-        <v>31</v>
-      </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
+        <v>48.78048780487805</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29.26829268292683</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>51.21951219512195</v>
+      </c>
+      <c r="P2" t="n">
+        <v>70.73170731707317</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.5365853658536586</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.6984126984126984</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>71.50086706163601</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>12.33970079814561</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>269</v>
       </c>
       <c r="C3" t="n">
-        <v>34.57249070631971</v>
+        <v>239</v>
       </c>
       <c r="D3" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.15241635687732</v>
+      </c>
+      <c r="G3" t="n">
         <v>47</v>
       </c>
-      <c r="F3" t="n">
-        <v>46.80851063829788</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>43</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>45</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>8.51063829787234</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.25531914893617</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>91.48936170212765</v>
+      </c>
+      <c r="P3" t="n">
+        <v>95.74468085106383</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.9148936170212766</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9555555555555556</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>93.5751204688267</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>55.47454259756306</v>
       </c>
     </row>
@@ -618,16 +684,16 @@
         <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>4.081632653061225</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
       <c r="G4" t="n">
         <v>13</v>
@@ -636,24 +702,42 @@
         <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>100</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>100</v>
+      </c>
+      <c r="U4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>542</v>
       </c>
       <c r="C5" t="n">
-        <v>29.33579335793358</v>
+        <v>430</v>
       </c>
       <c r="D5" t="n">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24.72324723247232</v>
+      </c>
+      <c r="G5" t="n">
         <v>88</v>
       </c>
-      <c r="F5" t="n">
-        <v>56.81818181818182</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>44</v>
       </c>
-      <c r="H5" t="n">
-        <v>72</v>
-      </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J5" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
+        <v>44.31818181818182</v>
+      </c>
+      <c r="M5" t="n">
+        <v>26.13636363636364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16</v>
+      </c>
+      <c r="O5" t="n">
+        <v>50</v>
+      </c>
+      <c r="P5" t="n">
+        <v>68.18181818181817</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.5227272727272727</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.6865671641791045</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>80.09171183684876</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>14.1406730378833</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>414</v>
       </c>
       <c r="C6" t="n">
-        <v>49.27536231884059</v>
+        <v>279</v>
       </c>
       <c r="D6" t="n">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="G6" t="n">
         <v>60</v>
       </c>
-      <c r="F6" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>29</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>32</v>
       </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="P6" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.4833333333333333</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.651685393258427</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>42.23033243531842</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>12.26334353874104</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>300</v>
       </c>
       <c r="C7" t="n">
-        <v>21.33333333333334</v>
+        <v>239</v>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G7" t="n">
         <v>49</v>
       </c>
-      <c r="F7" t="n">
-        <v>22.44897959183674</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>38</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>40</v>
       </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="M7" t="n">
+        <v>16.3265306122449</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>77.55102040816327</v>
+      </c>
+      <c r="P7" t="n">
+        <v>81.63265306122449</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.8163265306122449</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.898876404494382</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>94.85891648301934</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>61.12098949083117</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>252</v>
       </c>
       <c r="C8" t="n">
-        <v>59.92063492063492</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E8" t="n">
+        <v>106</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100.3968253968254</v>
+      </c>
+      <c r="G8" t="n">
         <v>32</v>
       </c>
-      <c r="F8" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>9</v>
       </c>
-      <c r="I8" t="n">
-        <v>19</v>
-      </c>
       <c r="J8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L8" t="n">
+        <v>115.625</v>
+      </c>
+      <c r="M8" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>28.125</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.25</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.4</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>88.34026794723573</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>12.83824962370709</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>547</v>
       </c>
       <c r="C9" t="n">
-        <v>44.42413162705667</v>
+        <v>479</v>
       </c>
       <c r="D9" t="n">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="E9" t="n">
+        <v>53</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22.12065813528336</v>
+      </c>
+      <c r="G9" t="n">
         <v>79</v>
       </c>
-      <c r="F9" t="n">
-        <v>51.89873417721519</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>59</v>
       </c>
-      <c r="H9" t="n">
-        <v>66</v>
-      </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
+        <v>32.91139240506329</v>
+      </c>
+      <c r="M9" t="n">
+        <v>29.11392405063291</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>74.68354430379746</v>
+      </c>
+      <c r="P9" t="n">
+        <v>78.48101265822784</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.8481012658227848</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9178082191780822</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>88.82166363052126</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>48.24797407232677</v>
       </c>
     </row>

--- a/model/Auswertung/Infografiken/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Molmo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,273 +436,282 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gesamtwörter</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt fehlend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt zusätzlich</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>WER</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Erweiterter WER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Precision erweitert</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Recall erweitert</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score erweitert</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Cosine Similarity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU Score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Durchlauf</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Gesamtzeichen</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Korrekte Zeichen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Fehlende Zeichen</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::CER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Gesamtwörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::WER</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Precision</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Recall</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::F1 Score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::Cosine Similarity</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::BLEU Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A2" t="n">
+        <v>299</v>
       </c>
       <c r="B2" t="n">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="C2" t="n">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0.3645</v>
       </c>
       <c r="F2" t="n">
-        <v>36.45484949832776</v>
+        <v>41</v>
       </c>
       <c r="G2" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>48.78048780487805</v>
+        <v>0.7073</v>
       </c>
       <c r="M2" t="n">
-        <v>29.26829268292683</v>
+        <v>0.3171</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>0.6667</v>
       </c>
       <c r="O2" t="n">
-        <v>51.21951219512195</v>
+        <v>0.8571</v>
       </c>
       <c r="P2" t="n">
-        <v>70.73170731707317</v>
+        <v>0.5854</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.7272999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.6234</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6984126984126984</v>
+        <v>0.7869</v>
       </c>
       <c r="T2" t="n">
-        <v>71.50086706163601</v>
+        <v>0.715</v>
       </c>
       <c r="U2" t="n">
-        <v>12.33970079814561</v>
+        <v>0.1234</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A3" t="n">
+        <v>269</v>
       </c>
       <c r="B3" t="n">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C3" t="n">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.1115</v>
       </c>
       <c r="F3" t="n">
-        <v>11.15241635687732</v>
+        <v>47</v>
       </c>
       <c r="G3" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>8.51063829787234</v>
+        <v>0.1277</v>
       </c>
       <c r="M3" t="n">
-        <v>4.25531914893617</v>
+        <v>0.0426</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0.9556</v>
       </c>
       <c r="O3" t="n">
-        <v>91.48936170212765</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>95.74468085106383</v>
+        <v>0.9149</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.9556</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9348</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>93.5751204688267</v>
+        <v>0.9358</v>
       </c>
       <c r="U3" t="n">
-        <v>55.47454259756306</v>
+        <v>0.5547</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="A4" t="n">
+        <v>98</v>
       </c>
       <c r="B4" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0408</v>
       </c>
       <c r="F4" t="n">
-        <v>4.081632653061225</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
         <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -717,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -735,345 +744,365 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>542</v>
+      </c>
+      <c r="B5" t="n">
+        <v>430</v>
+      </c>
+      <c r="C5" t="n">
+        <v>112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2472</v>
+      </c>
+      <c r="F5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>58</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>16</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6477000000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2841</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6824</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8406</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6591</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8056</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.6705</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8227</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8008999999999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
-      </c>
-      <c r="B5" t="n">
-        <v>542</v>
-      </c>
-      <c r="C5" t="n">
-        <v>430</v>
-      </c>
-      <c r="D5" t="n">
-        <v>112</v>
-      </c>
-      <c r="E5" t="n">
-        <v>22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24.72324723247232</v>
-      </c>
-      <c r="G5" t="n">
-        <v>88</v>
-      </c>
-      <c r="H5" t="n">
-        <v>44</v>
-      </c>
-      <c r="I5" t="n">
-        <v>60</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L5" t="n">
-        <v>44.31818181818182</v>
-      </c>
-      <c r="M5" t="n">
-        <v>26.13636363636364</v>
-      </c>
-      <c r="N5" t="n">
-        <v>16</v>
-      </c>
-      <c r="O5" t="n">
-        <v>50</v>
-      </c>
-      <c r="P5" t="n">
-        <v>68.18181818181817</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5227272727272727</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6865671641791045</v>
-      </c>
-      <c r="T5" t="n">
-        <v>80.09171183684876</v>
-      </c>
-      <c r="U5" t="n">
-        <v>14.1406730378833</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>414</v>
+      </c>
+      <c r="B6" t="n">
+        <v>279</v>
+      </c>
+      <c r="C6" t="n">
+        <v>135</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5263</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6061</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.6452</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.4223</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1226</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="B6" t="n">
-        <v>414</v>
-      </c>
-      <c r="C6" t="n">
-        <v>279</v>
-      </c>
-      <c r="D6" t="n">
-        <v>135</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="G6" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" t="n">
-        <v>29</v>
-      </c>
-      <c r="I6" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>27</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>60</v>
-      </c>
-      <c r="M6" t="n">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>48.33333333333334</v>
-      </c>
-      <c r="P6" t="n">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.4833333333333333</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.651685393258427</v>
-      </c>
-      <c r="T6" t="n">
-        <v>42.23033243531842</v>
-      </c>
-      <c r="U6" t="n">
-        <v>12.26334353874104</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>300</v>
+      </c>
+      <c r="B7" t="n">
+        <v>239</v>
+      </c>
+      <c r="C7" t="n">
+        <v>61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F7" t="n">
+        <v>49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>39</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2653</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1837</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.9286</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.7959000000000001</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8298</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8966</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.9486</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
-      </c>
-      <c r="B7" t="n">
-        <v>300</v>
-      </c>
-      <c r="C7" t="n">
-        <v>239</v>
-      </c>
-      <c r="D7" t="n">
-        <v>61</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>49</v>
-      </c>
-      <c r="H7" t="n">
-        <v>38</v>
-      </c>
-      <c r="I7" t="n">
-        <v>40</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>20.40816326530612</v>
-      </c>
-      <c r="M7" t="n">
-        <v>16.3265306122449</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>77.55102040816327</v>
-      </c>
-      <c r="P7" t="n">
-        <v>81.63265306122449</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.8163265306122449</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.898876404494382</v>
-      </c>
-      <c r="T7" t="n">
-        <v>94.85891648301934</v>
-      </c>
-      <c r="U7" t="n">
-        <v>61.12098949083117</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>252</v>
+      </c>
+      <c r="B8" t="n">
+        <v>105</v>
+      </c>
+      <c r="C8" t="n">
+        <v>147</v>
+      </c>
+      <c r="D8" t="n">
+        <v>106</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>19</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.8834</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1284</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
-      </c>
-      <c r="B8" t="n">
-        <v>252</v>
-      </c>
-      <c r="C8" t="n">
-        <v>105</v>
-      </c>
-      <c r="D8" t="n">
-        <v>147</v>
-      </c>
-      <c r="E8" t="n">
-        <v>106</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100.3968253968254</v>
-      </c>
-      <c r="G8" t="n">
-        <v>32</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>115.625</v>
-      </c>
-      <c r="M8" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>28.125</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>88.34026794723573</v>
-      </c>
-      <c r="U8" t="n">
-        <v>12.83824962370709</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>547</v>
+      </c>
+      <c r="B9" t="n">
+        <v>479</v>
+      </c>
+      <c r="C9" t="n">
+        <v>68</v>
+      </c>
+      <c r="D9" t="n">
+        <v>53</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2212</v>
+      </c>
+      <c r="F9" t="n">
+        <v>79</v>
+      </c>
+      <c r="G9" t="n">
+        <v>62</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3671</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.2911</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8378</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7848000000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.8158</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8105</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8435</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8882</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.4825</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="B9" t="n">
-        <v>547</v>
-      </c>
-      <c r="C9" t="n">
-        <v>479</v>
-      </c>
-      <c r="D9" t="n">
-        <v>68</v>
-      </c>
-      <c r="E9" t="n">
-        <v>53</v>
-      </c>
-      <c r="F9" t="n">
-        <v>22.12065813528336</v>
-      </c>
-      <c r="G9" t="n">
-        <v>79</v>
-      </c>
-      <c r="H9" t="n">
-        <v>59</v>
-      </c>
-      <c r="I9" t="n">
-        <v>62</v>
-      </c>
-      <c r="J9" t="n">
-        <v>14</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>32.91139240506329</v>
-      </c>
-      <c r="M9" t="n">
-        <v>29.11392405063291</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>74.68354430379746</v>
-      </c>
-      <c r="P9" t="n">
-        <v>78.48101265822784</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.8481012658227848</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.9178082191780822</v>
-      </c>
-      <c r="T9" t="n">
-        <v>88.82166363052126</v>
-      </c>
-      <c r="U9" t="n">
-        <v>48.24797407232677</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Infografiken/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Molmo/results.xlsx
@@ -550,64 +550,64 @@
         <v>299</v>
       </c>
       <c r="B2" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3645</v>
+        <v>0.3512</v>
       </c>
       <c r="F2" t="n">
         <v>41</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.2927</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8286</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9062</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.7073</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.3171</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8571</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.5854</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.7632</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6234</v>
+        <v>0.7632</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7869</v>
+        <v>0.8286</v>
       </c>
       <c r="T2" t="n">
         <v>0.715</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1234</v>
+        <v>0.2174</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -760,64 +760,64 @@
         <v>542</v>
       </c>
       <c r="B5" t="n">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="C5" t="n">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2472</v>
+        <v>0.1771</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6477000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2841</v>
+        <v>0.1477</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6824</v>
+        <v>0.8571</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8406</v>
+        <v>0.9851</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6591</v>
+        <v>0.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8056</v>
+        <v>0.8462</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6705</v>
+        <v>0.8</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8227</v>
+        <v>0.9103</v>
       </c>
       <c r="T5" t="n">
         <v>0.8008999999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1414</v>
+        <v>0.3557</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -830,64 +830,64 @@
         <v>414</v>
       </c>
       <c r="B6" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C6" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3333</v>
+        <v>0.3188</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.55</v>
+        <v>0.4333</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7692</v>
+        <v>0.875</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8333</v>
+        <v>0.9211</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5</v>
+        <v>0.5833</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5263</v>
+        <v>0.6034</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6061</v>
+        <v>0.7</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6452</v>
+        <v>0.7292</v>
       </c>
       <c r="T6" t="n">
         <v>0.4223</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1226</v>
+        <v>0.1964</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -900,64 +900,64 @@
         <v>300</v>
       </c>
       <c r="B7" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>0.27</v>
+        <v>0.2233</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2653</v>
+        <v>0.1837</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1837</v>
+        <v>0.1429</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9286</v>
+        <v>0.9762</v>
       </c>
       <c r="O7" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7959000000000001</v>
+        <v>0.8367</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8298</v>
+        <v>0.8542</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8571</v>
+        <v>0.9011</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8966</v>
+        <v>0.9213</v>
       </c>
       <c r="T7" t="n">
         <v>0.9486</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6112</v>
+        <v>0.7066</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -970,28 +970,28 @@
         <v>252</v>
       </c>
       <c r="B8" t="n">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="C8" t="n">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.004</v>
+        <v>0.1706</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1000,34 +1000,34 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.1875</v>
+        <v>0.1875</v>
       </c>
       <c r="M8" t="n">
-        <v>1.125</v>
+        <v>0.125</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4062</v>
+        <v>0.9062</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4194</v>
+        <v>0.9355</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4062</v>
+        <v>0.9062</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4194</v>
+        <v>0.9355</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4062</v>
+        <v>0.9062</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4194</v>
+        <v>0.9355</v>
       </c>
       <c r="T8" t="n">
         <v>0.8834</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1284</v>
+        <v>0.5997</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1040,64 +1040,64 @@
         <v>547</v>
       </c>
       <c r="B9" t="n">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="C9" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2212</v>
+        <v>0.1298</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
       </c>
       <c r="G9" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3671</v>
+        <v>0.1899</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2911</v>
+        <v>0.1899</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8378</v>
+        <v>0.9211</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8732</v>
+        <v>0.9211</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7848000000000001</v>
+        <v>0.8861</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8158</v>
+        <v>0.8861</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8105</v>
+        <v>0.9032</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8435</v>
+        <v>0.9032</v>
       </c>
       <c r="T9" t="n">
         <v>0.8882</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4825</v>
+        <v>0.6107</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>

--- a/model/Auswertung/Infografiken/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Molmo/results.xlsx
@@ -547,67 +547,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B2" t="n">
         <v>195</v>
       </c>
       <c r="C2" t="n">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3512</v>
+        <v>0.2996</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
         <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0.439</v>
+        <v>0.4103</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2927</v>
+        <v>0.3077</v>
       </c>
       <c r="N2" t="n">
         <v>0.8286</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9062</v>
+        <v>0.8788</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7073</v>
+        <v>0.7436</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7632</v>
+        <v>0.7838000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7632</v>
+        <v>0.7838000000000001</v>
       </c>
       <c r="S2" t="n">
         <v>0.8286</v>
       </c>
       <c r="T2" t="n">
-        <v>0.715</v>
+        <v>0.7528</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2174</v>
+        <v>0.1866</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B3" t="n">
         <v>239</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1115</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0408</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B5" t="n">
         <v>449</v>
       </c>
       <c r="C5" t="n">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1771</v>
+        <v>0.144</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B6" t="n">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3188</v>
+        <v>0.3063</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B7" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
         <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2233</v>
+        <v>0.1831</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B8" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1706</v>
+        <v>0.1149</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B9" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1298</v>
+        <v>0.0578</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
